--- a/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Notes and Guides/Display_A3D_Mirage.xlsx
+++ b/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Notes and Guides/Display_A3D_Mirage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Notes and Guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6651CB57-9864-4526-B91C-780D8C410FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BB4A3-2DB4-4412-A964-3946C449D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1065" windowWidth="9915" windowHeight="14535" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
   </bookViews>
   <sheets>
     <sheet name="Display_Notes" sheetId="9" r:id="rId1"/>
@@ -440,173 +440,693 @@
     <t>Display Screen Info and Menu Tree</t>
   </si>
   <si>
-    <t>*Deselect and reselect file if necessary</t>
-  </si>
-  <si>
-    <t>Start (R) : R = Ready</t>
-  </si>
-  <si>
-    <t>Navigate to Menu =&gt; Filament =&gt; Load</t>
-  </si>
-  <si>
-    <t>Push the new filament in until the extruder.</t>
-  </si>
-  <si>
-    <t>Select "Grab Fil." option assist by pushing the filament slightly</t>
-  </si>
-  <si>
     <t>Check if the filament has been secured by the extruder</t>
   </si>
   <si>
-    <t>Select "Purge"</t>
-  </si>
-  <si>
-    <t>Wait until finished. Clean up purged filament</t>
-  </si>
-  <si>
-    <t>Right now Purge command becomes Purge more and Start command becomes Done Load</t>
-  </si>
-  <si>
-    <t>Purge more if necessary, clean again excess filament</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Select Done Load</t>
-  </si>
-  <si>
     <t>Loading Filament (Via Display)</t>
   </si>
   <si>
     <t>Unloading Filament (Via Display)</t>
   </si>
   <si>
-    <t>Navigate to Menu =&gt; Filament =&gt; Unload</t>
-  </si>
-  <si>
-    <t>Select Start and when to heat up to 260C</t>
-  </si>
-  <si>
     <t>The printer will begin the purge process and unload</t>
   </si>
   <si>
-    <t>On the end of purge, assist the extruder unloading by pulling the filament with low force</t>
-  </si>
-  <si>
-    <t>If filament is a bit stuck, select Retract More while pulling the filament</t>
-  </si>
-  <si>
-    <t>Right now  Start command becomes Done Unload</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Select Done Unload</t>
-  </si>
-  <si>
     <t>Z Offset Calibration (Via Display + Webpage)</t>
   </si>
   <si>
     <t>The z offset tuning must be started in the display to properly mount the probe afterwards</t>
   </si>
   <si>
-    <t>Navigate to Menu =&gt; Setup =&gt; Calibration =&gt; Z Offset</t>
-  </si>
-  <si>
-    <t>Select Probe Start</t>
-  </si>
-  <si>
-    <t>After the probing operation. Remove the magnetic probe</t>
-  </si>
-  <si>
-    <r>
-      <t>Calibrate Z offset using a paper and</t>
+    <t>After adjusting and accepting, go back to display</t>
+  </si>
+  <si>
+    <t>Attach the probe properly! Facing the printer, the side magnet should be facing left</t>
+  </si>
+  <si>
+    <t>The display will now show:</t>
+  </si>
+  <si>
+    <t>F(X) BR(X) BL(X)</t>
+  </si>
+  <si>
+    <t>Accept(1)</t>
+  </si>
+  <si>
+    <t>Adjusted(1)</t>
+  </si>
+  <si>
+    <t>&lt;= Number beside is the current screw that is being adjusted</t>
+  </si>
+  <si>
+    <t>Manual Bed Screw Leveling: Paper Method (Via Display)</t>
+  </si>
+  <si>
+    <t>If you successfully accepted 3 screws in a row. The bed leveling is completed</t>
+  </si>
+  <si>
+    <t>&lt;= Labels if the screw is accepted</t>
+  </si>
+  <si>
+    <t>Complete the cycle on 3 screws and readjust and repeat to each screw when necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If performed via display, </t>
+  </si>
+  <si>
+    <t>Goto the webpage to continue</t>
+  </si>
+  <si>
+    <t>You can also perform this using BED_SCREWS_ADJUST under toolhead section in the webpage (Beside the gear icon, expand)</t>
+  </si>
+  <si>
+    <t>You can also perform this using SCREWS_TILT_CALCULATE under toolhead section in the webpage (Beside the gear icon, expand)</t>
+  </si>
+  <si>
+    <t>The probe will measure the points new the screws. Turn the screws as calculated and shown</t>
+  </si>
+  <si>
+    <t>Starting a Print (Via Display)</t>
+  </si>
+  <si>
+    <t>Probe Bed Screw Leveling (Via Display)</t>
+  </si>
+  <si>
+    <t>Goto "Display_Screen_Menu" Sheet</t>
+  </si>
+  <si>
+    <r>
+      <t>The "</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" command will show a ready status. Select start to print</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deselect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" and reselect to change file if necessary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu =&gt; Filament =&gt; Load</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" and wait for nozzle to heat up to 260C</t>
+    </r>
+  </si>
+  <si>
+    <t>Push the new filament in until it hits the extruder gears.</t>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grab Fil.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" option. Assist by pushing the filament slightly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" and wait until finished. Clean up the purged filament afterwards</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Right now "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" command becomes "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purge More"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and "Start" command becomes "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" if finished</t>
+    </r>
+  </si>
+  <si>
+    <t>Purge more if necessary/color of the new filament is still not clean, clean excess filament again afterwards</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu =&gt; Filament =&gt; Unload</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the end of purge, assist the extruder unloading by pulling the filament </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> distance adjustment in the WEB page</t>
-    </r>
-  </si>
-  <si>
-    <t>After adjusting and accepting, go back to display</t>
-  </si>
-  <si>
-    <t>Under the Z Offset tree, Select Move Safe Z</t>
-  </si>
-  <si>
-    <t>Attach the probe properly! Facing the printer, the side magnet should be facing left</t>
-  </si>
-  <si>
-    <t>Select Dock Probe</t>
-  </si>
-  <si>
-    <t>Navigate to Menu =&gt; Setup =&gt; Calibration =&gt; Bed Leveling =&gt; Manual:Paper</t>
-  </si>
-  <si>
-    <t>Select Start Leveling</t>
-  </si>
-  <si>
-    <t>The display will now show:</t>
-  </si>
-  <si>
-    <t>F(X) BR(X) BL(X)</t>
-  </si>
-  <si>
-    <t>Accept(1)</t>
-  </si>
-  <si>
-    <t>Adjusted(1)</t>
-  </si>
-  <si>
-    <t>&lt;= Number beside is the current screw that is being adjusted</t>
-  </si>
-  <si>
-    <t>Manual Bed Screw Leveling: Paper Method (Via Display)</t>
-  </si>
-  <si>
-    <t>If you successfully accepted 3 screws in a row. The bed leveling is completed</t>
-  </si>
-  <si>
-    <t>&lt;= Labels if the screw is accepted</t>
-  </si>
-  <si>
-    <t>The toolhead moves to the first screw (Front).  Use a paper, turn the bed screw if necessary and select adjusted.</t>
-  </si>
-  <si>
-    <t>Complete the cycle on 3 screws and readjust and repeat to each screw when necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If performed via display, </t>
-  </si>
-  <si>
-    <t>Navigate to Menu =&gt; Setup =&gt; Calibration =&gt; Bed Leveling</t>
-  </si>
-  <si>
-    <t>Select Auto:Probe</t>
-  </si>
-  <si>
-    <t>Goto the webpage to continue</t>
-  </si>
-  <si>
-    <t>You can also perform this using BED_SCREWS_ADJUST under toolhead section in the webpage (Beside the gear icon, expand)</t>
-  </si>
-  <si>
-    <t>You can also perform this using SCREWS_TILT_CALCULATE under toolhead section in the webpage (Beside the gear icon, expand)</t>
-  </si>
-  <si>
-    <t>The probe will measure the points new the screws. Turn the screws as calculated and shown</t>
-  </si>
-  <si>
-    <t>Goto other sheet</t>
-  </si>
-  <si>
-    <t>Starting a Print (Via Display)</t>
-  </si>
-  <si>
-    <t>Probe Bed Screw Leveling (Via Display)</t>
+      <t>with low force</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If filament is a bit stuck, select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retract More</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" while pulling the filament</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Right now  "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command becomes "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done Unload"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done Unload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" if finished</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu =&gt; Setup =&gt; Calibration =&gt; Z Offset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Probe Start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>After the probing operation, remove the magnetic probe</t>
+  </si>
+  <si>
+    <r>
+      <t>Calibrate Z offset using a paper and the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> distance adjustment in the WEB PAGE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z Offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tree, Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move Safe Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dock Probe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" to finish the operation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu =&gt; Setup =&gt; Calibration =&gt; Bed Leveling =&gt; Manual:Paper</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start Leveling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>The toolhead moves to the first screw (Front).  Use a paper, turn the bed screw if necessary and select "Adjusted".</t>
+  </si>
+  <si>
+    <r>
+      <t>If the distance is just right, select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menu =&gt; Setup =&gt; Calibration =&gt; Bed Leveling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto:Probe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1912,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ECFAF4-E680-4E13-A27E-2F413A1871CC}">
   <dimension ref="B2:AG159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1931,7 +2451,7 @@
         <v>111</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2009,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,40 +2575,40 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>124</v>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,17 +2618,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,16 +2636,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,34 +2652,34 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>132</v>
+      <c r="E29" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>133</v>
+      <c r="E30" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,26 +2735,26 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>149</v>
+      <c r="E40" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,21 +2770,29 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="23"/>
       <c r="E44" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -2275,14 +2801,14 @@
       <c r="J44" s="24"/>
       <c r="K44" s="23"/>
       <c r="L44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q44" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="23"/>
       <c r="E45" s="22" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -2291,14 +2817,14 @@
       <c r="J45" s="24"/>
       <c r="K45" s="23"/>
       <c r="L45" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="23"/>
       <c r="E46" s="22" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
@@ -2306,37 +2832,34 @@
       <c r="I46" s="23"/>
       <c r="J46" s="24"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="23"/>
-      <c r="E47" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="23"/>
-      <c r="N47" s="5"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="E48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
+      <c r="L48" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -2346,10 +2869,10 @@
     </row>
     <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -2357,17 +2880,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="L51" s="2" t="s">
-        <v>85</v>
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,7 +2925,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2415,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2439,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2447,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,7 +3562,7 @@
   <dimension ref="B1:AP94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
